--- a/src/analysis_examples/circadb/results_lomb/cosinor_10527538_rasl11a_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10527538_rasl11a_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.21478589841323592, 0.3384715246025559]</t>
+          <t>[0.21325942680231091, 0.3399979962134809]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.768328564277226e-09</v>
+        <v>1.024386220294105e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>6.768328564277226e-09</v>
+        <v>1.024386220294105e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.8427896207828471</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3823540403919168, 0.4473753051820685]</t>
+          <t>[0.38234756464379505, 0.4473817809301902]</t>
         </is>
       </c>
       <c r="U2" t="n">
